--- a/biology/Zoologie/Antarctodon/Antarctodon.xlsx
+++ b/biology/Zoologie/Antarctodon/Antarctodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antarctodon sobrali
 Antarctodon est un genre éteint de mammifères qui vivait au début de l’Éocène (fin de l’Yprésien) en Antarctique.
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (20 juillet 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (20 juillet 2019) :
 † Antarctodon sobrali Bond et al., 2011 - espèce type et unique espèce connue à ce jour.</t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Antarctodon, composé du préfixe « Antarc » pour Antarctique et de « odon », dérivé du grec ancien ὀδούς, odoús, « dent »[2], a été choisi en référence au lieu de découverte, l'île Seymour au large de la péninsule Antarctique.
-Le nom spécifique de l'espèce Antarctodon sobrali a été choisi en l'honneur de José María Sobral, géologue et lieutenant de marine argentin qui a pris part à l'Expédition Antarctic (1901-1904) dirigée par Otto Nordenskjöld[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Antarctodon, composé du préfixe « Antarc » pour Antarctique et de « odon », dérivé du grec ancien ὀδούς, odoús, « dent », a été choisi en référence au lieu de découverte, l'île Seymour au large de la péninsule Antarctique.
+Le nom spécifique de l'espèce Antarctodon sobrali a été choisi en l'honneur de José María Sobral, géologue et lieutenant de marine argentin qui a pris part à l'Expédition Antarctic (1901-1904) dirigée par Otto Nordenskjöld.
 </t>
         </is>
       </c>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Mariano Bond, Alejandro Kramarz, Ross D. E. Macphee et Marcelo Reguero, « A New Astrapothere (Mammalia, Meridiungulata) from La Meseta Formation, Seymour (Marambio) Island, and a Reassessment of Previous Records of Antarctic Astrapotheres », American Museum Novitates, New York, Musée américain d'histoire naturelle, vol. 3718, no 3718,‎ juin 2011, p. 1-16 (ISSN 0003-0082 et 1937-352X, OCLC 47720325, DOI 10.1206/3718.2, lire en ligne)</t>
         </is>
